--- a/tables/OSM_top_model_summary_formatted.xlsx
+++ b/tables/OSM_top_model_summary_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B996293C-D1E4-4BC6-AE41-E8EB2EAFF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141ABBB2-0BC3-4EF2-8A51-5D1F67922C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5595" yWindow="3255" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Estimate</t>
   </si>
@@ -49,12 +49,6 @@
     <t>Edge Density</t>
   </si>
   <si>
-    <t>CFI</t>
-  </si>
-  <si>
-    <t>Edge Density × CFI</t>
-  </si>
-  <si>
     <t>Site [nested]</t>
   </si>
   <si>
@@ -71,6 +65,15 @@
   </si>
   <si>
     <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Modeled scale (m)</t>
+  </si>
+  <si>
+    <t>Site Disturbance</t>
+  </si>
+  <si>
+    <t>Edge Density × Site Disturbance</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -169,8 +172,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,227 +491,278 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B1" sqref="B1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="2.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
+      <c r="B1" s="2"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6">
+        <v>-1.4279999999999999</v>
+      </c>
+      <c r="F3" s="7">
+        <v>0.23</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11">
+        <v>100</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.158</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.112</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="11">
+        <v>100</v>
+      </c>
+      <c r="E5" s="6">
+        <v>-0.51800000000000002</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.128</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.111</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11">
+        <v>100</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="F7" s="7">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G7" s="6">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11">
+        <v>4250</v>
+      </c>
+      <c r="E8" s="6">
+        <v>-8.8999999999999996E-2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11">
+        <v>4250</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.121</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4250</v>
+      </c>
+      <c r="E10" s="14">
+        <v>-0.25600000000000001</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="6">
-        <v>-1.4279999999999999</v>
-      </c>
-      <c r="D3" s="7">
-        <v>0.23</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.158</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0.112</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.16</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>-0.51800000000000002</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0.128</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6">
-        <v>-3.2000000000000001E-2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0.111</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.77100000000000002</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.16400000000000001</v>
-      </c>
-      <c r="D7" s="7">
-        <v>9.1999999999999998E-2</v>
-      </c>
-      <c r="E7" s="6">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6">
-        <v>-8.8999999999999996E-2</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.59299999999999997</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="D9" s="7">
-        <v>0.121</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1.4E-2</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3" t="s">
+      <c r="D13" s="7">
+        <v>1.5816160905751411</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8">
-        <v>-0.25600000000000001</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.5816160905751411</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="D14" s="9">
         <v>0.64032695799465134</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/OSM_top_model_summary_formatted.xlsx
+++ b/tables/OSM_top_model_summary_formatted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141ABBB2-0BC3-4EF2-8A51-5D1F67922C75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5CD9E-DCE6-444C-B35B-FFA497E19D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="3255" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -494,25 +494,25 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:H15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="8" max="8" width="2.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="2.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
     <col min="11" max="11" width="18" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -522,7 +522,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="4" t="s">
@@ -542,7 +542,7 @@
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
@@ -562,7 +562,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
@@ -582,7 +582,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
@@ -602,7 +602,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
@@ -622,7 +622,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
@@ -642,14 +642,14 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="11">
-        <v>4250</v>
+        <v>2250</v>
       </c>
       <c r="E8" s="6">
         <v>-8.8999999999999996E-2</v>
@@ -662,14 +662,14 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="11">
-        <v>4250</v>
+        <v>2250</v>
       </c>
       <c r="E9" s="6">
         <v>0.29499999999999998</v>
@@ -682,14 +682,14 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="13">
-        <v>4250</v>
+        <v>2250</v>
       </c>
       <c r="E10" s="14">
         <v>-0.25600000000000001</v>
@@ -702,7 +702,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
@@ -712,7 +712,7 @@
       <c r="G11" s="7"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="4" t="s">
@@ -726,7 +726,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
@@ -740,7 +740,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3" t="s">
@@ -754,7 +754,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>

--- a/tables/OSM_top_model_summary_formatted.xlsx
+++ b/tables/OSM_top_model_summary_formatted.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aidanbrushett\Desktop\projects\OSM_red_squirrel_distribution\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5CD9E-DCE6-444C-B35B-FFA497E19D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA1B4A4-53EB-4EA0-90C9-AB7AE3C2EEA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,9 +548,7 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
-        <v>100</v>
-      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="6">
         <v>-1.4279999999999999</v>
       </c>
